--- a/data/aggregated_single/bs_auto1.xlsx
+++ b/data/aggregated_single/bs_auto1.xlsx
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>246.5725504910742</v>
+        <v>246.5725504910743</v>
       </c>
     </row>
   </sheetData>
